--- a/R_C14_rates calculation/Output/Raw data/NPP_cold_standard.xlsx
+++ b/R_C14_rates calculation/Output/Raw data/NPP_cold_standard.xlsx
@@ -427,7 +427,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SA1_2</t>
+          <t>SA-Sc_2</t>
         </is>
       </c>
       <c r="C2">
@@ -465,7 +465,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>SA1</t>
+          <t>SA-Sc</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SA1_2</t>
+          <t>SA-Sc_2</t>
         </is>
       </c>
       <c r="C3">
@@ -515,7 +515,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>SA1</t>
+          <t>SA-Sc</t>
         </is>
       </c>
     </row>
@@ -527,7 +527,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SA1_2</t>
+          <t>SA-Sc_2</t>
         </is>
       </c>
       <c r="C4">
@@ -565,7 +565,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>SA1</t>
+          <t>SA-Sc</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SA1_2</t>
+          <t>SA-Sc_2</t>
         </is>
       </c>
       <c r="C5">
@@ -615,7 +615,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>SA1</t>
+          <t>SA-Sc</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SA1_2</t>
+          <t>SA-Sc_2</t>
         </is>
       </c>
       <c r="C6">
@@ -665,7 +665,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>SA1</t>
+          <t>SA-Sc</t>
         </is>
       </c>
     </row>
@@ -677,7 +677,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SA1_2</t>
+          <t>SA-Sc_2</t>
         </is>
       </c>
       <c r="C7">
@@ -715,7 +715,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>SA1</t>
+          <t>SA-Sc</t>
         </is>
       </c>
     </row>
@@ -727,7 +727,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SA2_3</t>
+          <t>SA1_3</t>
         </is>
       </c>
       <c r="C8">
@@ -765,7 +765,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>SA2</t>
+          <t>SA1</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SA2_3</t>
+          <t>SA1_3</t>
         </is>
       </c>
       <c r="C9">
@@ -815,7 +815,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>SA2</t>
+          <t>SA1</t>
         </is>
       </c>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SA2_3</t>
+          <t>SA1_3</t>
         </is>
       </c>
       <c r="C10">
@@ -865,7 +865,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>SA2</t>
+          <t>SA1</t>
         </is>
       </c>
     </row>
@@ -877,7 +877,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SA2_3</t>
+          <t>SA1_3</t>
         </is>
       </c>
       <c r="C11">
@@ -915,7 +915,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>SA2</t>
+          <t>SA1</t>
         </is>
       </c>
     </row>
@@ -927,7 +927,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SA2_3</t>
+          <t>SA1_3</t>
         </is>
       </c>
       <c r="C12">
@@ -965,7 +965,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>SA2</t>
+          <t>SA1</t>
         </is>
       </c>
     </row>
@@ -977,7 +977,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SA2_3</t>
+          <t>SA1_3</t>
         </is>
       </c>
       <c r="C13">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>SA2</t>
+          <t>SA1</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SA2_4</t>
+          <t>SA1_4</t>
         </is>
       </c>
       <c r="C14">
@@ -1065,7 +1065,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>SA2</t>
+          <t>SA1</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SA2_4</t>
+          <t>SA1_4</t>
         </is>
       </c>
       <c r="C15">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>SA2</t>
+          <t>SA1</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SA2_4</t>
+          <t>SA1_4</t>
         </is>
       </c>
       <c r="C16">
@@ -1162,7 +1162,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>SA2</t>
+          <t>SA1</t>
         </is>
       </c>
     </row>
@@ -1174,7 +1174,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SA2_5</t>
+          <t>SA1_5</t>
         </is>
       </c>
       <c r="C17">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>SA2</t>
+          <t>SA1</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SA2_5</t>
+          <t>SA1_5</t>
         </is>
       </c>
       <c r="C18">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>SA2</t>
+          <t>SA1</t>
         </is>
       </c>
     </row>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SA2_5</t>
+          <t>SA1_5</t>
         </is>
       </c>
       <c r="C19">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>SA2</t>
+          <t>SA1</t>
         </is>
       </c>
     </row>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SA2_6</t>
+          <t>SA1_6</t>
         </is>
       </c>
       <c r="C20">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>SA2</t>
+          <t>SA1</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SA2_6</t>
+          <t>SA1_6</t>
         </is>
       </c>
       <c r="C21">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>SA2</t>
+          <t>SA1</t>
         </is>
       </c>
     </row>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SA2_6</t>
+          <t>SA1_6</t>
         </is>
       </c>
       <c r="C22">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>SA2</t>
+          <t>SA1</t>
         </is>
       </c>
     </row>
@@ -1468,7 +1468,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SA2_6</t>
+          <t>SA1_6</t>
         </is>
       </c>
       <c r="C23">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>SA2</t>
+          <t>SA1</t>
         </is>
       </c>
     </row>
@@ -2562,7 +2562,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>SA3_11</t>
+          <t>SA2_11</t>
         </is>
       </c>
       <c r="C45">
@@ -2600,7 +2600,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>SA3</t>
+          <t>SA2</t>
         </is>
       </c>
     </row>
@@ -2612,7 +2612,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>SA3_11</t>
+          <t>SA2_11</t>
         </is>
       </c>
       <c r="C46">
@@ -2650,7 +2650,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>SA3</t>
+          <t>SA2</t>
         </is>
       </c>
     </row>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>SA3_11</t>
+          <t>SA2_11</t>
         </is>
       </c>
       <c r="C47">
@@ -2700,7 +2700,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>SA3</t>
+          <t>SA2</t>
         </is>
       </c>
     </row>
@@ -2712,7 +2712,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>SA3_11</t>
+          <t>SA2_11</t>
         </is>
       </c>
       <c r="C48">
@@ -2750,7 +2750,7 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>SA3</t>
+          <t>SA2</t>
         </is>
       </c>
     </row>
@@ -2762,7 +2762,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>SA3_11</t>
+          <t>SA2_11</t>
         </is>
       </c>
       <c r="C49">
@@ -2797,7 +2797,7 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>SA3</t>
+          <t>SA2</t>
         </is>
       </c>
     </row>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>SA3_11</t>
+          <t>SA2_11</t>
         </is>
       </c>
       <c r="C50">
@@ -2844,7 +2844,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>SA3</t>
+          <t>SA2</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2856,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>SA3_11</t>
+          <t>SA2_11</t>
         </is>
       </c>
       <c r="C51">
@@ -2894,7 +2894,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>SA3</t>
+          <t>SA2</t>
         </is>
       </c>
     </row>
@@ -2906,7 +2906,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>SA3_11</t>
+          <t>SA2_11</t>
         </is>
       </c>
       <c r="C52">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>SA3</t>
+          <t>SA2</t>
         </is>
       </c>
     </row>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>SA3_11</t>
+          <t>SA2_11</t>
         </is>
       </c>
       <c r="C53">
@@ -2988,7 +2988,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>SA3</t>
+          <t>SA2</t>
         </is>
       </c>
     </row>
@@ -3000,7 +3000,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>SA3_339</t>
+          <t>SA2_339</t>
         </is>
       </c>
       <c r="C54">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>SA3</t>
+          <t>SA2</t>
         </is>
       </c>
     </row>
@@ -3050,7 +3050,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>SA3_339</t>
+          <t>SA2_339</t>
         </is>
       </c>
       <c r="C55">
@@ -3088,7 +3088,7 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>SA3</t>
+          <t>SA2</t>
         </is>
       </c>
     </row>
@@ -3100,7 +3100,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>SA3_339</t>
+          <t>SA2_339</t>
         </is>
       </c>
       <c r="C56">
@@ -3138,7 +3138,7 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>SA3</t>
+          <t>SA2</t>
         </is>
       </c>
     </row>
@@ -3150,7 +3150,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>SA3_339</t>
+          <t>SA2_339</t>
         </is>
       </c>
       <c r="C57">
@@ -3188,7 +3188,7 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>SA3</t>
+          <t>SA2</t>
         </is>
       </c>
     </row>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>SA3_339</t>
+          <t>SA2_339</t>
         </is>
       </c>
       <c r="C58">
@@ -3238,7 +3238,7 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>SA3</t>
+          <t>SA2</t>
         </is>
       </c>
     </row>
@@ -3250,7 +3250,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>SA3_339</t>
+          <t>SA2_339</t>
         </is>
       </c>
       <c r="C59">
@@ -3288,7 +3288,7 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>SA3</t>
+          <t>SA2</t>
         </is>
       </c>
     </row>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>SA3_353</t>
+          <t>SA2_353</t>
         </is>
       </c>
       <c r="C60">
@@ -3338,7 +3338,7 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>SA3</t>
+          <t>SA2</t>
         </is>
       </c>
     </row>
@@ -3350,7 +3350,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>SA3_353</t>
+          <t>SA2_353</t>
         </is>
       </c>
       <c r="C61">
@@ -3388,7 +3388,7 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>SA3</t>
+          <t>SA2</t>
         </is>
       </c>
     </row>
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>SA3_353</t>
+          <t>SA2_353</t>
         </is>
       </c>
       <c r="C62">
@@ -3438,7 +3438,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>SA3</t>
+          <t>SA2</t>
         </is>
       </c>
     </row>
@@ -3450,7 +3450,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>SA3_353</t>
+          <t>SA2_353</t>
         </is>
       </c>
       <c r="C63">
@@ -3488,7 +3488,7 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>SA3</t>
+          <t>SA2</t>
         </is>
       </c>
     </row>
@@ -3500,7 +3500,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>SA3_353</t>
+          <t>SA2_353</t>
         </is>
       </c>
       <c r="C64">
@@ -3535,7 +3535,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>SA3</t>
+          <t>SA2</t>
         </is>
       </c>
     </row>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>SA3_353</t>
+          <t>SA2_353</t>
         </is>
       </c>
       <c r="C65">
@@ -3585,7 +3585,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>SA3</t>
+          <t>SA2</t>
         </is>
       </c>
     </row>
